--- a/xtt_demo/06-01_T.xlsx
+++ b/xtt_demo/06-01_T.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MoldaB\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MoldaB\AppData\Local\SAP\SAP GUI\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,9 +17,6 @@
     <sheet name="Columns Group in Excel" sheetId="2" r:id="rId3"/>
     <sheet name="Columns Group in ABAP" sheetId="3" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_WHOLE_LIST">Rows!$B$3:$D$4</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -1109,7 +1106,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
